--- a/xls/activities_task.xlsx
+++ b/xls/activities_task.xlsx
@@ -220,7 +220,7 @@
     <t>QUEST_CHARGE_TIMES</t>
   </si>
   <si>
-    <t>首次充值次数，12121212</t>
+    <t>首次充值次数,12121212</t>
   </si>
   <si>
     <t>首次充值</t>
@@ -2325,7 +2325,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
